--- a/graph.xlsx
+++ b/graph.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A40076-AFF6-43A1-85D5-48D753D164FA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D278BF5E-1C7E-40B4-A90F-9169F9007CFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lda" sheetId="1" r:id="rId1"/>
@@ -2517,48 +2517,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ridge!$A$3:$A$7</c:f>
+              <c:f>ridge!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ridge!$B$3:$B$7</c:f>
+              <c:f>ridge!$B$3:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.98012999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.98409999999999997</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.98755999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.98782000000000003</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.98487000000000002</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.98063999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97538000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2610,48 +2622,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ridge!$A$3:$A$7</c:f>
+              <c:f>ridge!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ridge!$C$3:$C$7</c:f>
+              <c:f>ridge!$C$3:$C$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.98012999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.98409999999999997</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.98755999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.98782000000000003</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.98487000000000002</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.98063999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97538000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2709,48 +2733,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ridge!$A$3:$A$7</c:f>
+              <c:f>ridge!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ridge!$D$3:$D$7</c:f>
+              <c:f>ridge!$D$3:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.98050999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.98409999999999997</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.98768999999999996</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.98782000000000003</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.98487000000000002</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.98063999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97538000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2808,48 +2844,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ridge!$A$3:$A$7</c:f>
+              <c:f>ridge!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ridge!$E$3:$E$7</c:f>
+              <c:f>ridge!$E$3:$E$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.98038000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.98409999999999997</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.98755999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.98782000000000003</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.98487000000000002</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.98063999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97538000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2907,48 +2955,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ridge!$A$3:$A$7</c:f>
+              <c:f>ridge!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ridge!$F$3:$F$7</c:f>
+              <c:f>ridge!$F$3:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.98012999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.98409999999999997</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.98755999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.98782000000000003</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.98487000000000002</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.98063999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97538000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3009,48 +3069,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ridge!$A$3:$A$7</c:f>
+              <c:f>ridge!$A$3:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ridge!$G$3:$G$7</c:f>
+              <c:f>ridge!$G$3:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.98012999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.98409999999999997</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.98768999999999996</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.98782000000000003</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>0.98487000000000002</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>0.98063999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97538000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3130,6 +3202,7 @@
         <c:axId val="728423680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.97199999999999998"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3313,7 +3386,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ridge!$B$10</c:f>
+              <c:f>ridge!$B$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3348,48 +3421,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ridge!$A$11:$A$15</c:f>
+              <c:f>ridge!$A$24:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ridge!$B$11:$B$15</c:f>
+              <c:f>ridge!$B$24:$B$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97384999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97614999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98372000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98641000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.98692000000000002</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98321000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97526000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97179000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97089999999999999</c:v>
+                <c:pt idx="6">
+                  <c:v>0.98282000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3397,7 +3482,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-BCDC-4572-85C5-F2314E57FFC7}"/>
+              <c16:uniqueId val="{00000001-AE9B-48E6-958D-9DFB1C07DF02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3406,7 +3491,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ridge!$C$10</c:f>
+              <c:f>ridge!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3441,48 +3526,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ridge!$A$11:$A$15</c:f>
+              <c:f>ridge!$A$24:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ridge!$C$11:$C$15</c:f>
+              <c:f>ridge!$C$24:$C$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.97345999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97384999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97614999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98372000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98641000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.98692000000000002</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98321000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97526000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97179000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97089999999999999</c:v>
+                <c:pt idx="6">
+                  <c:v>0.98282000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3490,7 +3587,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-BCDC-4572-85C5-F2314E57FFC7}"/>
+              <c16:uniqueId val="{00000002-AE9B-48E6-958D-9DFB1C07DF02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3499,7 +3596,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>ridge!$D$10</c:f>
+              <c:f>ridge!$D$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3540,48 +3637,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ridge!$A$11:$A$15</c:f>
+              <c:f>ridge!$A$24:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ridge!$D$11:$D$15</c:f>
+              <c:f>ridge!$D$24:$D$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.97321000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97372000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98358999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98641000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.98692000000000002</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98321000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97526000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97179000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97089999999999999</c:v>
+                <c:pt idx="6">
+                  <c:v>0.98282000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3589,7 +3698,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-BCDC-4572-85C5-F2314E57FFC7}"/>
+              <c16:uniqueId val="{00000003-AE9B-48E6-958D-9DFB1C07DF02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3598,7 +3707,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>ridge!$E$10</c:f>
+              <c:f>ridge!$E$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3639,48 +3748,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ridge!$A$11:$A$15</c:f>
+              <c:f>ridge!$A$24:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ridge!$E$11:$E$15</c:f>
+              <c:f>ridge!$E$24:$E$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.97384999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97653999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98358999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98641000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.98692000000000002</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98321000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97526000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97179000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97089999999999999</c:v>
+                <c:pt idx="6">
+                  <c:v>0.98282000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3688,7 +3809,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-BCDC-4572-85C5-F2314E57FFC7}"/>
+              <c16:uniqueId val="{00000004-AE9B-48E6-958D-9DFB1C07DF02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3697,7 +3818,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>ridge!$F$10</c:f>
+              <c:f>ridge!$F$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3738,48 +3859,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ridge!$A$11:$A$15</c:f>
+              <c:f>ridge!$A$24:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ridge!$F$11:$F$15</c:f>
+              <c:f>ridge!$F$24:$F$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.97372000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97436</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97653999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98358999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98641000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.98692000000000002</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98321000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97526000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97179000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97089999999999999</c:v>
+                <c:pt idx="6">
+                  <c:v>0.98282000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3787,7 +3920,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-BCDC-4572-85C5-F2314E57FFC7}"/>
+              <c16:uniqueId val="{00000005-AE9B-48E6-958D-9DFB1C07DF02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3796,7 +3929,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>ridge!$G$10</c:f>
+              <c:f>ridge!$G$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3840,48 +3973,60 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ridge!$A$11:$A$15</c:f>
+              <c:f>ridge!$A$24:$A$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ridge!$G$11:$G$15</c:f>
+              <c:f>ridge!$G$24:$G$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
+                  <c:v>0.97423000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97474000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.97679000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98358999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.98641000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>0.98692000000000002</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.98321000000000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97526000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.97179000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.97089999999999999</c:v>
+                <c:pt idx="6">
+                  <c:v>0.98282000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3889,7 +4034,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-BCDC-4572-85C5-F2314E57FFC7}"/>
+              <c16:uniqueId val="{00000006-AE9B-48E6-958D-9DFB1C07DF02}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3903,11 +4048,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="631357424"/>
-        <c:axId val="631358408"/>
+        <c:axId val="778237312"/>
+        <c:axId val="778232720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="631357424"/>
+        <c:axId val="778237312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3950,7 +4095,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631358408"/>
+        <c:crossAx val="778232720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3958,9 +4103,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="631358408"/>
+        <c:axId val="778232720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.97"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4009,7 +4155,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="631357424"/>
+        <c:crossAx val="778237312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4144,7 +4290,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>ridge!$B$18</c:f>
+              <c:f>ridge!$B$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4179,48 +4325,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ridge!$A$19:$A$23</c:f>
+              <c:f>ridge!$A$13:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ridge!$B$19:$B$23</c:f>
+              <c:f>ridge!$B$13:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.97384999999999999</c:v>
+                  <c:v>0.98731000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97614999999999996</c:v>
+                  <c:v>0.98794999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98372000000000004</c:v>
+                  <c:v>0.98692000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98641000000000001</c:v>
+                  <c:v>0.98321000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98692000000000002</c:v>
+                  <c:v>0.97526000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97179000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97089999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4228,7 +4392,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AE9B-48E6-958D-9DFB1C07DF02}"/>
+              <c16:uniqueId val="{00000001-AAB5-4D3A-B765-5E20699CA651}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4237,7 +4401,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>ridge!$C$18</c:f>
+              <c:f>ridge!$C$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4272,48 +4436,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ridge!$A$19:$A$23</c:f>
+              <c:f>ridge!$A$13:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ridge!$C$19:$C$23</c:f>
+              <c:f>ridge!$C$13:$C$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.97384999999999999</c:v>
+                  <c:v>0.98731000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97614999999999996</c:v>
+                  <c:v>0.98794999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98372000000000004</c:v>
+                  <c:v>0.98692000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98641000000000001</c:v>
+                  <c:v>0.98321000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98692000000000002</c:v>
+                  <c:v>0.97526000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97179000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97089999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4321,7 +4503,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-AE9B-48E6-958D-9DFB1C07DF02}"/>
+              <c16:uniqueId val="{00000002-AAB5-4D3A-B765-5E20699CA651}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4330,7 +4512,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>ridge!$D$18</c:f>
+              <c:f>ridge!$D$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4371,48 +4553,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ridge!$A$19:$A$23</c:f>
+              <c:f>ridge!$A$13:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ridge!$D$19:$D$23</c:f>
+              <c:f>ridge!$D$13:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.97372000000000003</c:v>
+                  <c:v>0.98731000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97641</c:v>
+                  <c:v>0.98794999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98358999999999996</c:v>
+                  <c:v>0.98692000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98641000000000001</c:v>
+                  <c:v>0.98321000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98692000000000002</c:v>
+                  <c:v>0.97526000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97179000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97089999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4420,7 +4620,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-AE9B-48E6-958D-9DFB1C07DF02}"/>
+              <c16:uniqueId val="{00000003-AAB5-4D3A-B765-5E20699CA651}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4429,7 +4629,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>ridge!$E$18</c:f>
+              <c:f>ridge!$E$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4470,48 +4670,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ridge!$A$19:$A$23</c:f>
+              <c:f>ridge!$A$13:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ridge!$E$19:$E$23</c:f>
+              <c:f>ridge!$E$13:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.97397</c:v>
+                  <c:v>0.98731000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97653999999999996</c:v>
+                  <c:v>0.98794999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98358999999999996</c:v>
+                  <c:v>0.98692000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98641000000000001</c:v>
+                  <c:v>0.98321000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98692000000000002</c:v>
+                  <c:v>0.97526000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97179000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97089999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4519,7 +4737,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AE9B-48E6-958D-9DFB1C07DF02}"/>
+              <c16:uniqueId val="{00000004-AAB5-4D3A-B765-5E20699CA651}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4528,7 +4746,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>ridge!$F$18</c:f>
+              <c:f>ridge!$F$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4569,48 +4787,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ridge!$A$19:$A$23</c:f>
+              <c:f>ridge!$A$13:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ridge!$F$19:$F$23</c:f>
+              <c:f>ridge!$F$13:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.97436</c:v>
+                  <c:v>0.98731000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97653999999999996</c:v>
+                  <c:v>0.98794999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98358999999999996</c:v>
+                  <c:v>0.98692000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98641000000000001</c:v>
+                  <c:v>0.98321000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98692000000000002</c:v>
+                  <c:v>0.97526000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97179000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97102999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4618,7 +4854,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-AE9B-48E6-958D-9DFB1C07DF02}"/>
+              <c16:uniqueId val="{00000005-AAB5-4D3A-B765-5E20699CA651}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4627,7 +4863,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>ridge!$G$18</c:f>
+              <c:f>ridge!$G$12</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4671,48 +4907,66 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>ridge!$A$19:$A$23</c:f>
+              <c:f>ridge!$A$13:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>0.01</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>0.1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="5">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="6">
                   <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ridge!$G$19:$G$23</c:f>
+              <c:f>ridge!$G$13:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0.97474000000000005</c:v>
+                  <c:v>0.98731000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.97679000000000005</c:v>
+                  <c:v>0.98794999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.98358999999999996</c:v>
+                  <c:v>0.98692000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98641000000000001</c:v>
+                  <c:v>0.98321000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.98692000000000002</c:v>
+                  <c:v>0.97526000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97179000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.97102999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4720,7 +4974,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-AE9B-48E6-958D-9DFB1C07DF02}"/>
+              <c16:uniqueId val="{00000006-AAB5-4D3A-B765-5E20699CA651}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4734,11 +4988,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="778237312"/>
-        <c:axId val="778232720"/>
+        <c:axId val="637291008"/>
+        <c:axId val="698179152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="778237312"/>
+        <c:axId val="637291008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4781,7 +5035,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778232720"/>
+        <c:crossAx val="698179152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4789,9 +5043,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="778232720"/>
+        <c:axId val="698179152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.97"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4840,7 +5095,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="778237312"/>
+        <c:crossAx val="637291008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11672,22 +11927,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>500062</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>271462</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>176212</xdr:rowOff>
+      <xdr:colOff>100012</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2">
+        <xdr:cNvPr id="4" name="图表 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B873D367-3269-4C5B-B34D-86EE667D4DE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB21BFF-41C3-4D62-96C6-4E0A1F0AA1BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11707,23 +11962,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>519112</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>290512</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3">
+        <xdr:cNvPr id="5" name="图表 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCB21BFF-41C3-4D62-96C6-4E0A1F0AA1BA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D3A54AD-A9ED-4CD8-8A8E-F92D2413CDD2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12127,8 +12382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12664,7 +12919,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13066,10 +13321,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89835356-1EF9-4938-A966-78A8DA082A10}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13104,403 +13359,564 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="B3">
-        <v>0.98409999999999997</v>
+        <v>0.98012999999999995</v>
       </c>
       <c r="C3">
-        <v>0.98409999999999997</v>
+        <v>0.98012999999999995</v>
       </c>
       <c r="D3">
-        <v>0.98409999999999997</v>
+        <v>0.98050999999999999</v>
       </c>
       <c r="E3">
-        <v>0.98409999999999997</v>
+        <v>0.98038000000000003</v>
       </c>
       <c r="F3">
-        <v>0.98409999999999997</v>
+        <v>0.98012999999999995</v>
       </c>
       <c r="G3">
-        <v>0.98409999999999997</v>
+        <v>0.98012999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="B4">
-        <v>0.98755999999999999</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="C4">
-        <v>0.98755999999999999</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="D4">
-        <v>0.98768999999999996</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="E4">
-        <v>0.98755999999999999</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="F4">
-        <v>0.98755999999999999</v>
+        <v>0.98409999999999997</v>
       </c>
       <c r="G4">
-        <v>0.98768999999999996</v>
+        <v>0.98409999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="B5">
-        <v>0.98782000000000003</v>
+        <v>0.98755999999999999</v>
       </c>
       <c r="C5">
-        <v>0.98782000000000003</v>
+        <v>0.98755999999999999</v>
       </c>
       <c r="D5">
-        <v>0.98782000000000003</v>
+        <v>0.98768999999999996</v>
       </c>
       <c r="E5">
-        <v>0.98782000000000003</v>
+        <v>0.98755999999999999</v>
       </c>
       <c r="F5">
-        <v>0.98782000000000003</v>
+        <v>0.98755999999999999</v>
       </c>
       <c r="G5">
-        <v>0.98782000000000003</v>
+        <v>0.98768999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>0.98487000000000002</v>
+        <v>0.98782000000000003</v>
       </c>
       <c r="C6">
-        <v>0.98487000000000002</v>
+        <v>0.98782000000000003</v>
       </c>
       <c r="D6">
-        <v>0.98487000000000002</v>
+        <v>0.98782000000000003</v>
       </c>
       <c r="E6">
-        <v>0.98487000000000002</v>
+        <v>0.98782000000000003</v>
       </c>
       <c r="F6">
-        <v>0.98487000000000002</v>
+        <v>0.98782000000000003</v>
       </c>
       <c r="G6">
-        <v>0.98487000000000002</v>
+        <v>0.98782000000000003</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.98487000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.98487000000000002</v>
+      </c>
+      <c r="D7">
+        <v>0.98487000000000002</v>
+      </c>
+      <c r="E7">
+        <v>0.98487000000000002</v>
+      </c>
+      <c r="F7">
+        <v>0.98487000000000002</v>
+      </c>
+      <c r="G7">
+        <v>0.98487000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
         <v>100</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>0.98063999999999996</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>0.98063999999999996</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>0.98063999999999996</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>0.98063999999999996</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>0.98063999999999996</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>0.98063999999999996</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>14</v>
+      <c r="A9">
+        <v>1000</v>
+      </c>
+      <c r="B9">
+        <v>0.97538000000000002</v>
+      </c>
+      <c r="C9">
+        <v>0.97538000000000002</v>
+      </c>
+      <c r="D9">
+        <v>0.97538000000000002</v>
+      </c>
+      <c r="E9">
+        <v>0.97538000000000002</v>
+      </c>
+      <c r="F9">
+        <v>0.97538000000000002</v>
+      </c>
+      <c r="G9">
+        <v>0.97538000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>0.01</v>
-      </c>
-      <c r="B11">
-        <v>0.98692000000000002</v>
-      </c>
-      <c r="C11">
-        <v>0.98692000000000002</v>
-      </c>
-      <c r="D11">
-        <v>0.98692000000000002</v>
-      </c>
-      <c r="E11">
-        <v>0.98692000000000002</v>
-      </c>
-      <c r="F11">
-        <v>0.98692000000000002</v>
-      </c>
-      <c r="G11">
-        <v>0.98692000000000002</v>
+      <c r="A11" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>0.1</v>
-      </c>
-      <c r="B12">
-        <v>0.98321000000000003</v>
-      </c>
-      <c r="C12">
-        <v>0.98321000000000003</v>
-      </c>
-      <c r="D12">
-        <v>0.98321000000000003</v>
-      </c>
-      <c r="E12">
-        <v>0.98321000000000003</v>
-      </c>
-      <c r="F12">
-        <v>0.98321000000000003</v>
-      </c>
-      <c r="G12">
-        <v>0.98321000000000003</v>
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1</v>
+        <v>1E-4</v>
       </c>
       <c r="B13">
-        <v>0.97526000000000002</v>
+        <v>0.98731000000000002</v>
       </c>
       <c r="C13">
-        <v>0.97526000000000002</v>
+        <v>0.98731000000000002</v>
       </c>
       <c r="D13">
-        <v>0.97526000000000002</v>
+        <v>0.98731000000000002</v>
       </c>
       <c r="E13">
-        <v>0.97526000000000002</v>
+        <v>0.98731000000000002</v>
       </c>
       <c r="F13">
-        <v>0.97526000000000002</v>
+        <v>0.98731000000000002</v>
       </c>
       <c r="G13">
-        <v>0.97526000000000002</v>
+        <v>0.98731000000000002</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>10</v>
+        <v>1E-3</v>
       </c>
       <c r="B14">
-        <v>0.97179000000000004</v>
+        <v>0.98794999999999999</v>
       </c>
       <c r="C14">
-        <v>0.97179000000000004</v>
+        <v>0.98794999999999999</v>
       </c>
       <c r="D14">
-        <v>0.97179000000000004</v>
+        <v>0.98794999999999999</v>
       </c>
       <c r="E14">
-        <v>0.97179000000000004</v>
+        <v>0.98794999999999999</v>
       </c>
       <c r="F14">
-        <v>0.97179000000000004</v>
+        <v>0.98794999999999999</v>
       </c>
       <c r="G14">
-        <v>0.97179000000000004</v>
+        <v>0.98794999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="B15">
-        <v>0.97089999999999999</v>
+        <v>0.98692000000000002</v>
       </c>
       <c r="C15">
-        <v>0.97089999999999999</v>
+        <v>0.98692000000000002</v>
       </c>
       <c r="D15">
-        <v>0.97089999999999999</v>
+        <v>0.98692000000000002</v>
       </c>
       <c r="E15">
-        <v>0.97089999999999999</v>
+        <v>0.98692000000000002</v>
       </c>
       <c r="F15">
-        <v>0.97089999999999999</v>
+        <v>0.98692000000000002</v>
       </c>
       <c r="G15">
-        <v>0.97089999999999999</v>
+        <v>0.98692000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.1</v>
+      </c>
+      <c r="B16">
+        <v>0.98321000000000003</v>
+      </c>
+      <c r="C16">
+        <v>0.98321000000000003</v>
+      </c>
+      <c r="D16">
+        <v>0.98321000000000003</v>
+      </c>
+      <c r="E16">
+        <v>0.98321000000000003</v>
+      </c>
+      <c r="F16">
+        <v>0.98321000000000003</v>
+      </c>
+      <c r="G16">
+        <v>0.98321000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>17</v>
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.97526000000000002</v>
+      </c>
+      <c r="C17">
+        <v>0.97526000000000002</v>
+      </c>
+      <c r="D17">
+        <v>0.97526000000000002</v>
+      </c>
+      <c r="E17">
+        <v>0.97526000000000002</v>
+      </c>
+      <c r="F17">
+        <v>0.97526000000000002</v>
+      </c>
+      <c r="G17">
+        <v>0.97526000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18">
         <v>10</v>
       </c>
-      <c r="B18" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>14</v>
+      <c r="B18">
+        <v>0.97179000000000004</v>
+      </c>
+      <c r="C18">
+        <v>0.97179000000000004</v>
+      </c>
+      <c r="D18">
+        <v>0.97179000000000004</v>
+      </c>
+      <c r="E18">
+        <v>0.97179000000000004</v>
+      </c>
+      <c r="F18">
+        <v>0.97179000000000004</v>
+      </c>
+      <c r="G18">
+        <v>0.97179000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>0.01</v>
+        <v>100</v>
       </c>
       <c r="B19">
-        <v>0.97384999999999999</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="C19">
-        <v>0.97384999999999999</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="D19">
-        <v>0.97372000000000003</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="E19">
-        <v>0.97397</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="F19">
-        <v>0.97436</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="G19">
-        <v>0.97474000000000005</v>
+        <v>0.97089999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>0.1</v>
+        <v>1000</v>
       </c>
       <c r="B20">
-        <v>0.97614999999999996</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="C20">
-        <v>0.97614999999999996</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="D20">
-        <v>0.97641</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="E20">
-        <v>0.97653999999999996</v>
+        <v>0.97089999999999999</v>
       </c>
       <c r="F20">
-        <v>0.97653999999999996</v>
+        <v>0.97102999999999995</v>
       </c>
       <c r="G20">
-        <v>0.97679000000000005</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21">
-        <v>0.98372000000000004</v>
-      </c>
-      <c r="C21">
-        <v>0.98372000000000004</v>
-      </c>
-      <c r="D21">
-        <v>0.98358999999999996</v>
-      </c>
-      <c r="E21">
-        <v>0.98358999999999996</v>
-      </c>
-      <c r="F21">
-        <v>0.98358999999999996</v>
-      </c>
-      <c r="G21">
-        <v>0.98358999999999996</v>
+        <v>0.97102999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>10</v>
-      </c>
-      <c r="B22">
-        <v>0.98641000000000001</v>
-      </c>
-      <c r="C22">
-        <v>0.98641000000000001</v>
-      </c>
-      <c r="D22">
-        <v>0.98641000000000001</v>
-      </c>
-      <c r="E22">
-        <v>0.98641000000000001</v>
-      </c>
-      <c r="F22">
-        <v>0.98641000000000001</v>
-      </c>
-      <c r="G22">
-        <v>0.98641000000000001</v>
+      <c r="A22" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1E-3</v>
+      </c>
+      <c r="B24">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="C24">
+        <v>0.97345999999999999</v>
+      </c>
+      <c r="D24">
+        <v>0.97321000000000002</v>
+      </c>
+      <c r="E24">
+        <v>0.97384999999999999</v>
+      </c>
+      <c r="F24">
+        <v>0.97372000000000003</v>
+      </c>
+      <c r="G24">
+        <v>0.97423000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>0.01</v>
+      </c>
+      <c r="B25">
+        <v>0.97384999999999999</v>
+      </c>
+      <c r="C25">
+        <v>0.97384999999999999</v>
+      </c>
+      <c r="D25">
+        <v>0.97372000000000003</v>
+      </c>
+      <c r="E25">
+        <v>0.97397</v>
+      </c>
+      <c r="F25">
+        <v>0.97436</v>
+      </c>
+      <c r="G25">
+        <v>0.97474000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.1</v>
+      </c>
+      <c r="B26">
+        <v>0.97614999999999996</v>
+      </c>
+      <c r="C26">
+        <v>0.97614999999999996</v>
+      </c>
+      <c r="D26">
+        <v>0.97641</v>
+      </c>
+      <c r="E26">
+        <v>0.97653999999999996</v>
+      </c>
+      <c r="F26">
+        <v>0.97653999999999996</v>
+      </c>
+      <c r="G26">
+        <v>0.97679000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0.98372000000000004</v>
+      </c>
+      <c r="C27">
+        <v>0.98372000000000004</v>
+      </c>
+      <c r="D27">
+        <v>0.98358999999999996</v>
+      </c>
+      <c r="E27">
+        <v>0.98358999999999996</v>
+      </c>
+      <c r="F27">
+        <v>0.98358999999999996</v>
+      </c>
+      <c r="G27">
+        <v>0.98358999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>0.98641000000000001</v>
+      </c>
+      <c r="C28">
+        <v>0.98641000000000001</v>
+      </c>
+      <c r="D28">
+        <v>0.98641000000000001</v>
+      </c>
+      <c r="E28">
+        <v>0.98641000000000001</v>
+      </c>
+      <c r="F28">
+        <v>0.98641000000000001</v>
+      </c>
+      <c r="G28">
+        <v>0.98641000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>100</v>
       </c>
-      <c r="B23">
+      <c r="B29">
         <v>0.98692000000000002</v>
       </c>
-      <c r="C23">
+      <c r="C29">
         <v>0.98692000000000002</v>
       </c>
-      <c r="D23">
+      <c r="D29">
         <v>0.98692000000000002</v>
       </c>
-      <c r="E23">
+      <c r="E29">
         <v>0.98692000000000002</v>
       </c>
-      <c r="F23">
+      <c r="F29">
         <v>0.98692000000000002</v>
       </c>
-      <c r="G23">
+      <c r="G29">
         <v>0.98692000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1000</v>
+      </c>
+      <c r="B30">
+        <v>0.98282000000000003</v>
+      </c>
+      <c r="C30">
+        <v>0.98282000000000003</v>
+      </c>
+      <c r="D30">
+        <v>0.98282000000000003</v>
+      </c>
+      <c r="E30">
+        <v>0.98282000000000003</v>
+      </c>
+      <c r="F30">
+        <v>0.98282000000000003</v>
+      </c>
+      <c r="G30">
+        <v>0.98282000000000003</v>
       </c>
     </row>
   </sheetData>
